--- a/cdhrc_dbgi/pos/metadata/original/mapp_cdhrc_dbgi_ALC_pos_metadata.xlsx
+++ b/cdhrc_dbgi/pos/metadata/original/mapp_cdhrc_dbgi_ALC_pos_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lecab\gitrepo\plantes_ornementales\ornamental\cdhrc_dbgi\pos\metadata\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D231F56D-8E49-43DD-B0DD-DCDC563D73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D108AD-2D3A-46C3-A3EF-1B284CEA4A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,7 +576,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3A7122-0EFA-404D-B507-9949E290F87C}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
